--- a/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
+++ b/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Steam-Engine\Les Proper Steam Engine\Parts List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE000603-F893-4F23-B736-6F90550D4B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29092C2-1649-47AA-80B1-F109032BC193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{3A7C17A1-F6D3-47ED-8154-3A4911587F59}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Column1</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>len/qty needed</t>
-  </si>
-  <si>
     <t>Len/qty of unit bought</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve"> FREE CUTTING BRASS ROD (Stock)</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/8859K19/</t>
   </si>
   <si>
@@ -204,6 +198,111 @@
   </si>
   <si>
     <t>Resource Videos</t>
+  </si>
+  <si>
+    <t>CYLINDER</t>
+  </si>
+  <si>
+    <t>9/32" BRASS TUBE</t>
+  </si>
+  <si>
+    <t>CYLINDER HEAD</t>
+  </si>
+  <si>
+    <t>FREE CUTTING BRASS ROD (Stock)</t>
+  </si>
+  <si>
+    <t>VALVE TUBE</t>
+  </si>
+  <si>
+    <t>1/8" BRASS TUBE</t>
+  </si>
+  <si>
+    <t>BRASS TOP</t>
+  </si>
+  <si>
+    <t>0.03" x 1/2" BRASS FLAT BAR</t>
+  </si>
+  <si>
+    <t>BRASS BASE</t>
+  </si>
+  <si>
+    <t>0.03" x 3/4" BRASS FLAT BAR</t>
+  </si>
+  <si>
+    <t>FRAME POST</t>
+  </si>
+  <si>
+    <t>3/32" FREE CUTTING BRASS ROD</t>
+  </si>
+  <si>
+    <t>INLET MANIFOLD</t>
+  </si>
+  <si>
+    <t>3/32" BRASS TUBE</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/8859K18/</t>
+  </si>
+  <si>
+    <t>FLYWHEEL</t>
+  </si>
+  <si>
+    <t>1/2" FREE CUTTING BRASS ROD</t>
+  </si>
+  <si>
+    <t>CRANKSHAFT</t>
+  </si>
+  <si>
+    <t>5/64" &amp; 3/8" DRILL ROD</t>
+  </si>
+  <si>
+    <t>0-80 STAINLESS HEX HEAD AND PHILLIPS HEAD BOLTS</t>
+  </si>
+  <si>
+    <t>PISTON</t>
+  </si>
+  <si>
+    <t>FREE CUTTING BRASS ROD</t>
+  </si>
+  <si>
+    <t>VALVE</t>
+  </si>
+  <si>
+    <t>CONNECTING ROD</t>
+  </si>
+  <si>
+    <t>1/32" x 3/32" BRASS FLAT BAR</t>
+  </si>
+  <si>
+    <t>MAIN BEARING</t>
+  </si>
+  <si>
+    <t>VALVE ROD</t>
+  </si>
+  <si>
+    <t>1/32" BRASS ROD</t>
+  </si>
+  <si>
+    <t>ECCENTRIC</t>
+  </si>
+  <si>
+    <t>1/4" FREE CUTTING BRASS ROD</t>
+  </si>
+  <si>
+    <t>Alternate Parts</t>
+  </si>
+  <si>
+    <t>Components of Engine</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/coupling-nuts/thread-size~0-80/</t>
+  </si>
+  <si>
+    <t>Coupling Nut</t>
+  </si>
+  <si>
+    <t>len/qty needed per part</t>
   </si>
 </sst>
 </file>
@@ -213,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +328,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +345,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,12 +375,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -606,7 +729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -876,10 +999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAE06AE-E5F1-46C1-A678-22AB2DDBD6F7}">
-  <dimension ref="D1:L25"/>
+  <dimension ref="D1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -897,476 +1020,537 @@
   <sheetData>
     <row r="1" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="I14" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3.49</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D19" s="2">
         <v>12</v>
       </c>
-      <c r="I8" s="1">
-        <v>2.76</v>
-      </c>
-      <c r="J8" s="2">
-        <f>ROUNDUP(G8*$H$2/H8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <f>J8*I8</f>
-        <v>2.76</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="2" t="e">
-        <f t="shared" ref="J9:J25" si="0">ROUNDUP(G9*$H$2/H9,0)</f>
+      <c r="E19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D20" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="3" t="e">
-        <f t="shared" ref="K9:K25" si="1">J9*I9</f>
+      <c r="K20" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.79</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>1.79</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2.31</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="1"/>
-        <v>2.31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D21" s="2">
         <v>14</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2.31</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="1"/>
-        <v>2.31</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D22" s="2">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D23" s="2">
         <v>16</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="e">
-        <f t="shared" si="0"/>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="3" t="e">
-        <f t="shared" si="1"/>
+      <c r="K25" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D20">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D23">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="2" t="e">
-        <f t="shared" si="0"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="E26" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="E27" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="3" t="e">
-        <f t="shared" si="1"/>
+      <c r="K28" s="4" t="e">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="J25" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="L28" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L8" r:id="rId1" xr:uid="{F86E70AC-D5C6-40F1-B01F-D7FAF64F9216}"/>
+    <hyperlink ref="L8" r:id="rId1" xr:uid="{DB68705F-A3C3-4E86-B29B-39675D936557}"/>
+    <hyperlink ref="L14" r:id="rId2" xr:uid="{F0D53B66-5161-4BC0-B8EA-E7B0358D948F}"/>
+    <hyperlink ref="L28" r:id="rId3" xr:uid="{2061FB8D-7F01-45F2-8E8F-7F0B5E35EB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
+++ b/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Steam-Engine\Les Proper Steam Engine\Parts List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29092C2-1649-47AA-80B1-F109032BC193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CED10B-6BEE-48FE-A800-9C1F6ED5E107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{3A7C17A1-F6D3-47ED-8154-3A4911587F59}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
   <si>
     <t>Column1</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Len/qty of unit bought</t>
   </si>
   <si>
-    <t>Units needed</t>
-  </si>
-  <si>
     <t># of Engines</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>https://www.mcmaster.com/8859K19/</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/8859K23/</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/8859K83/</t>
   </si>
   <si>
@@ -215,9 +206,6 @@
     <t>VALVE TUBE</t>
   </si>
   <si>
-    <t>1/8" BRASS TUBE</t>
-  </si>
-  <si>
     <t>BRASS TOP</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>CRANKSHAFT</t>
   </si>
   <si>
-    <t>5/64" &amp; 3/8" DRILL ROD</t>
-  </si>
-  <si>
     <t>0-80 STAINLESS HEX HEAD AND PHILLIPS HEAD BOLTS</t>
   </si>
   <si>
@@ -290,19 +275,94 @@
     <t>1/4" FREE CUTTING BRASS ROD</t>
   </si>
   <si>
-    <t>Alternate Parts</t>
-  </si>
-  <si>
-    <t>Components of Engine</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/coupling-nuts/thread-size~0-80/</t>
-  </si>
-  <si>
-    <t>Coupling Nut</t>
-  </si>
-  <si>
     <t>len/qty needed per part</t>
+  </si>
+  <si>
+    <t>Length lost due to cutting</t>
+  </si>
+  <si>
+    <t>Safety Factor</t>
+  </si>
+  <si>
+    <t>QTY Plus Cutting Length and Safety Factor</t>
+  </si>
+  <si>
+    <t>Purchase Chars</t>
+  </si>
+  <si>
+    <t>Component/Machining Chars</t>
+  </si>
+  <si>
+    <t># of Parts Needed</t>
+  </si>
+  <si>
+    <t>QTY to Buy</t>
+  </si>
+  <si>
+    <t>Crankshaft</t>
+  </si>
+  <si>
+    <t>3/8" DRILL ROD</t>
+  </si>
+  <si>
+    <t>5/64" DRILL ROD</t>
+  </si>
+  <si>
+    <t>Ultra-Formable 260 Brass, Round Tube, 1 Foot Long, 0.014" Wall Thickness, 9/32" OD | McMaster-Carr</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/91781A055/</t>
+  </si>
+  <si>
+    <t>Cost Per Person</t>
+  </si>
+  <si>
+    <t>Ultra-Formable 260 Brass, 1 Foot Long Rod, 3/32" Diameter | McMaster-Carr</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/25995A114/</t>
+  </si>
+  <si>
+    <t>Required Tools</t>
+  </si>
+  <si>
+    <t>0-80 Tap</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/1263K25/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/8859K82/</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ASSEMBLY AND SET SCREWS</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/8859K481/</t>
+  </si>
+  <si>
+    <t>SUM LENGTH OF MACHINE BRASS STOCK (HIGHLIGHTED ORANGE)</t>
+  </si>
+  <si>
+    <t>1/2" BRASS STOCK</t>
+  </si>
+  <si>
+    <t>Formable Easy-to-Machine 353 Brass Rod, 1/2" Diameter | McMaster-Carr</t>
+  </si>
+  <si>
+    <t>Cost/Person</t>
+  </si>
+  <si>
+    <t>Tot. Cost</t>
+  </si>
+  <si>
+    <t>Brass Tubing, 3/16" OD, 0.032" Wall Thickness | McMaster-Carr</t>
+  </si>
+  <si>
+    <t>1/8" ID BRASS TUBE (3/32 OD)</t>
   </si>
 </sst>
 </file>
@@ -312,7 +372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +395,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,13 +424,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -375,17 +460,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -999,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAE06AE-E5F1-46C1-A678-22AB2DDBD6F7}">
-  <dimension ref="D1:L28"/>
+  <dimension ref="D1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1011,546 +1106,873 @@
     <col min="5" max="5" width="47.06640625" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="19.9296875" customWidth="1"/>
+    <col min="8" max="8" width="21.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.3984375" customWidth="1"/>
     <col min="11" max="11" width="17.06640625" customWidth="1"/>
     <col min="12" max="12" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="4:15" x14ac:dyDescent="0.45">
       <c r="E1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
         <v>38</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="L4" t="s">
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="10">
+        <f>SUM(M8:M36)</f>
+        <v>136.63999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J4" s="9">
+        <f>I4-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="10">
+        <f>N3/$I$2</f>
+        <v>12.42181818181818</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="O7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
+      <c r="E8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <f>$I$4*H8*(G8+$I$3)</f>
+        <v>0.74250000000000016</v>
+      </c>
+      <c r="J8" s="2">
         <v>12</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2.76</v>
       </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="L8" s="12">
+        <f>ROUNDUP(I8*$I$2/J8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <f>K8*L8</f>
         <v>2.76</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="N8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9:I16" si="0">$I$4*H9*(G9+$I$3)</f>
+        <v>0.30250000000000005</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="12">
+        <f t="shared" ref="L9:L24" si="1">ROUNDUP(I9*$I$2/J9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" ref="M9:M24" si="2">K9*L9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.88550000000000018</v>
+      </c>
+      <c r="J10" s="2">
         <v>12</v>
       </c>
-      <c r="I10" s="3">
-        <v>1.79</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1.79</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="K10" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="J11" s="2">
         <v>12</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>2.31</v>
       </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="L11" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="2"/>
         <v>2.31</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="N11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D12" s="2">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.837</v>
+      </c>
+      <c r="J12" s="2">
         <v>12</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2.31</v>
       </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>2.31</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="L12" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="2"/>
+        <v>4.62</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D13" s="2">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.762</v>
+      </c>
+      <c r="J13" s="2">
+        <v>12</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>5.68</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D14" s="2">
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="J14" s="2">
         <v>36</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3.49</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="L14" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
         <v>3.49</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="N14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D15" s="2">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>24</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D16" s="2">
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2375</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+      <c r="K16" s="3">
+        <v>10.75</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="2"/>
+        <v>32.25</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D17" s="2">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" ref="I17:I25" si="3">$I$4*H17*(G17+$I$3)</f>
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J17" s="2">
+        <v>12</v>
+      </c>
+      <c r="K17" s="15">
+        <v>6.25</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="3"/>
+        <v>9.9</v>
+      </c>
+      <c r="J18" s="2">
+        <v>100</v>
+      </c>
+      <c r="K18" s="11">
+        <v>10.67</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="2"/>
+        <v>21.34</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D19" s="2">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="3"/>
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D20" s="2">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20">
+        <v>0.78</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="3"/>
+        <v>0.99550000000000016</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D21" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D18" s="2">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="G21" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0395000000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="2"/>
+        <v>1.32</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D22" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="7">
+      <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2375</v>
+      </c>
+      <c r="J23" s="2">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="2"/>
+        <v>2.39</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D24" s="2">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="4">
+      <c r="L24" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D19" s="2">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D20" s="2">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D21" s="2">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D22" s="2">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D23" s="2">
-        <v>16</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E26" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E27" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D28" s="2">
-        <v>6</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>82</v>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="17">
+        <f>I9+I15+I19+I20+I22+I24</f>
+        <v>2.6015000000000001</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="3"/>
+        <v>2.9991500000000002</v>
+      </c>
+      <c r="J25" s="2">
+        <v>36</v>
+      </c>
+      <c r="K25" s="3">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" ref="L25" si="4">ROUNDUP(I25*$I$2/J25,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" ref="M25" si="5">K25*L25</f>
+        <v>38.770000000000003</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="E27" s="2"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="E28" s="2"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="L30" s="12"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="L31" s="12"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="L32" s="12"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="10">
+        <v>6.76</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" ref="M36" si="6">K36*L36</f>
+        <v>6.76</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L8" r:id="rId1" xr:uid="{DB68705F-A3C3-4E86-B29B-39675D936557}"/>
-    <hyperlink ref="L14" r:id="rId2" xr:uid="{F0D53B66-5161-4BC0-B8EA-E7B0358D948F}"/>
-    <hyperlink ref="L28" r:id="rId3" xr:uid="{2061FB8D-7F01-45F2-8E8F-7F0B5E35EB05}"/>
+    <hyperlink ref="N14" r:id="rId1" xr:uid="{F0D53B66-5161-4BC0-B8EA-E7B0358D948F}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{286ADFF0-A07E-4BEF-B048-D8FAA444A4DB}"/>
+    <hyperlink ref="N11" r:id="rId3" xr:uid="{98DF6D3B-C81B-4565-9D6B-B7411737D2F4}"/>
+    <hyperlink ref="N12" r:id="rId4" xr:uid="{CE4A6C89-BB7B-4376-BA58-F1552E9D4761}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{864C02D5-AF38-487D-867A-A542380AC087}"/>
+    <hyperlink ref="N8" r:id="rId6" display="https://www.mcmaster.com/8859K25/" xr:uid="{F908FED8-5452-403B-87EF-B7B5A1DA2F2B}"/>
+    <hyperlink ref="N18" r:id="rId7" xr:uid="{3C454C26-D48F-43FD-863A-0CC4615A7216}"/>
+    <hyperlink ref="N13" r:id="rId8" display="https://www.mcmaster.com/8859K52/" xr:uid="{6D2CFA1F-D224-4FCF-B0E0-6F20EC0AE14C}"/>
+    <hyperlink ref="N36" r:id="rId9" xr:uid="{050EF5EE-4547-440F-BB79-999CF7691101}"/>
+    <hyperlink ref="N16" r:id="rId10" xr:uid="{86E96774-BC47-49EC-BE56-596C471E6C7D}"/>
+    <hyperlink ref="N21" r:id="rId11" xr:uid="{598B3B03-D249-41BA-9125-F467DD2CA1DE}"/>
+    <hyperlink ref="N23" r:id="rId12" xr:uid="{C88ABFB4-4976-43CB-828F-09617DD944EB}"/>
+    <hyperlink ref="N25" r:id="rId13" display="https://www.mcmaster.com/8313K14/" xr:uid="{6B80FD6D-6BC5-43A7-9BC3-936A702C28DD}"/>
+    <hyperlink ref="N10" r:id="rId14" display="https://www.mcmaster.com/8950K522-8950K524/" xr:uid="{E6EEBAA7-78EF-4DFB-A69B-C3A4FE7CF93A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
+++ b/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Steam-Engine\Les Proper Steam Engine\Parts List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CED10B-6BEE-48FE-A800-9C1F6ED5E107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1810D2B3-82F0-4EBC-97AA-41F3CD74FF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{3A7C17A1-F6D3-47ED-8154-3A4911587F59}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Parts List'!$A$1:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -362,7 +363,7 @@
     <t>Brass Tubing, 3/16" OD, 0.032" Wall Thickness | McMaster-Carr</t>
   </si>
   <si>
-    <t>1/8" ID BRASS TUBE (3/32 OD)</t>
+    <t>1/8" ID BRASS TUBE</t>
   </si>
 </sst>
 </file>
@@ -424,12 +425,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,6 +439,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -467,20 +468,20 @@
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1096,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAE06AE-E5F1-46C1-A678-22AB2DDBD6F7}">
   <dimension ref="D1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1145,7 +1146,7 @@
       <c r="M3" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <f>SUM(M8:M36)</f>
         <v>136.63999999999999</v>
       </c>
@@ -1157,7 +1158,7 @@
       <c r="I4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>I4-1</f>
         <v>0.10000000000000009</v>
       </c>
@@ -1165,7 +1166,7 @@
       <c r="M4" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <f>N3/$I$2</f>
         <v>12.42181818181818</v>
       </c>
@@ -1225,7 +1226,7 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1237,7 +1238,7 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f>$I$4*H8*(G8+$I$3)</f>
         <v>0.74250000000000016</v>
       </c>
@@ -1247,7 +1248,7 @@
       <c r="K8" s="3">
         <v>2.76</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <f>ROUNDUP(I8*$I$2/J8,0)</f>
         <v>1</v>
       </c>
@@ -1266,7 +1267,7 @@
       <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="2">
@@ -1275,7 +1276,7 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" ref="I9:I16" si="0">$I$4*H9*(G9+$I$3)</f>
         <v>0.30250000000000005</v>
       </c>
@@ -1283,11 +1284,11 @@
         <v>1</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <f t="shared" ref="L9:L24" si="1">ROUNDUP(I9*$I$2/J9,0)</f>
         <v>4</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <f t="shared" ref="M9:M24" si="2">K9*L9</f>
         <v>0</v>
       </c>
@@ -1309,7 +1310,7 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>0.88550000000000018</v>
       </c>
@@ -1319,7 +1320,7 @@
       <c r="K10" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1335,7 +1336,7 @@
       <c r="D11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1347,7 +1348,7 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>0.91849999999999998</v>
       </c>
@@ -1357,7 +1358,7 @@
       <c r="K11" s="3">
         <v>2.31</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1373,7 +1374,7 @@
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1385,7 +1386,7 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>1.837</v>
       </c>
@@ -1395,7 +1396,7 @@
       <c r="K12" s="3">
         <v>2.31</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1411,7 +1412,7 @@
       <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1423,7 +1424,7 @@
       <c r="H13">
         <v>4</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>3.762</v>
       </c>
@@ -1433,7 +1434,7 @@
       <c r="K13" s="3">
         <v>1.42</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1461,7 +1462,7 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>0.41250000000000003</v>
       </c>
@@ -1471,7 +1472,7 @@
       <c r="K14" s="3">
         <v>3.49</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1490,7 +1491,7 @@
       <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="2">
@@ -1499,7 +1500,7 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>0.36849999999999999</v>
       </c>
@@ -1507,11 +1508,11 @@
         <v>1</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1533,7 +1534,7 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>1.2375</v>
       </c>
@@ -1543,7 +1544,7 @@
       <c r="K16" s="3">
         <v>10.75</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1571,17 +1572,17 @@
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" ref="I17:I25" si="3">$I$4*H17*(G17+$I$3)</f>
         <v>0.53900000000000003</v>
       </c>
       <c r="J17" s="2">
         <v>12</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>6.25</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1594,7 +1595,7 @@
       <c r="D18" s="2">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="17" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1606,17 +1607,17 @@
       <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="3"/>
         <v>9.9</v>
       </c>
       <c r="J18" s="2">
         <v>100</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>10.67</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1635,7 +1636,7 @@
       <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>66</v>
       </c>
       <c r="G19" s="2">
@@ -1644,7 +1645,7 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="3"/>
         <v>0.52249999999999996</v>
       </c>
@@ -1654,11 +1655,11 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1671,7 +1672,7 @@
       <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>66</v>
       </c>
       <c r="G20">
@@ -1680,7 +1681,7 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="3"/>
         <v>0.99550000000000016</v>
       </c>
@@ -1690,11 +1691,11 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1716,7 +1717,7 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="3"/>
         <v>1.0395000000000001</v>
       </c>
@@ -1726,7 +1727,7 @@
       <c r="K21" s="3">
         <v>1.32</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1745,7 +1746,7 @@
       <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="2">
@@ -1754,7 +1755,7 @@
       <c r="H22">
         <v>2</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="3"/>
         <v>0.27500000000000002</v>
       </c>
@@ -1764,11 +1765,11 @@
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1790,7 +1791,7 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="3"/>
         <v>1.2375</v>
       </c>
@@ -1801,7 +1802,7 @@
       <c r="K23" s="3">
         <v>2.39</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1820,7 +1821,7 @@
       <c r="E24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="2">
@@ -1829,7 +1830,7 @@
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="3"/>
         <v>0.13750000000000001</v>
       </c>
@@ -1839,11 +1840,11 @@
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1857,14 +1858,14 @@
       <c r="F25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <f>I9+I15+I19+I20+I22+I24</f>
         <v>2.6015000000000001</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="3"/>
         <v>2.9991500000000002</v>
       </c>
@@ -1874,12 +1875,12 @@
       <c r="K25" s="3">
         <v>38.770000000000003</v>
       </c>
-      <c r="L25" s="12">
-        <f t="shared" ref="L25" si="4">ROUNDUP(I25*$I$2/J25,0)</f>
-        <v>1</v>
-      </c>
-      <c r="M25" s="16">
-        <f t="shared" ref="M25" si="5">K25*L25</f>
+      <c r="L25" s="11">
+        <f>ROUNDUP(I25*$I$2/J25,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="15">
+        <f>K25*L25</f>
         <v>38.770000000000003</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -1891,21 +1892,21 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="12"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="4"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.45">
       <c r="E27" s="2"/>
-      <c r="L27" s="12"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.45">
       <c r="E28" s="2"/>
-      <c r="L28" s="12"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.45">
@@ -1915,20 +1916,20 @@
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="12"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="4"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="L30" s="12"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="L31" s="12"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="L32" s="12"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="4"/>
     </row>
     <row r="35" spans="6:14" x14ac:dyDescent="0.45">
@@ -1940,14 +1941,14 @@
       <c r="F36" t="s">
         <v>92</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>6.76</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" ref="M36" si="6">K36*L36</f>
+        <f>K36*L36</f>
         <v>6.76</v>
       </c>
       <c r="N36" s="1" t="s">

--- a/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
+++ b/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Steam-Engine\Les Proper Steam Engine\Parts List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1810D2B3-82F0-4EBC-97AA-41F3CD74FF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CC4B9-DC0D-4153-9826-51E91B4617B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{3A7C17A1-F6D3-47ED-8154-3A4911587F59}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Parts List'!$A$1:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1097,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAE06AE-E5F1-46C1-A678-22AB2DDBD6F7}">
   <dimension ref="D1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
+++ b/Les Proper Steam Engine/Parts List/Les Proper Steam Engine Material List and Cost Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Steam-Engine\Les Proper Steam Engine\Parts List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CC4B9-DC0D-4153-9826-51E91B4617B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1519C22F-8DBD-4A22-B19E-2D60A9090651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{3A7C17A1-F6D3-47ED-8154-3A4911587F59}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>Column1</t>
   </si>
@@ -329,9 +329,6 @@
     <t>0-80 Tap</t>
   </si>
   <si>
-    <t>https://www.mcmaster.com/1263K25/</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/8859K82/</t>
   </si>
   <si>
@@ -363,6 +360,15 @@
   </si>
   <si>
     <t>1/8" ID BRASS TUBE</t>
+  </si>
+  <si>
+    <t>Ultra-Formable 260 Brass, Strip, 3/4" x 12", 0.0320" Thick | McMaster-Carr</t>
+  </si>
+  <si>
+    <t>Rotary Shaft, 316 Stainless Steel, 5/64" Diameter, 24" Long | McMaster-Carr</t>
+  </si>
+  <si>
+    <t>Cost after shipping and tax</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAE06AE-E5F1-46C1-A678-22AB2DDBD6F7}">
-  <dimension ref="D1:O36"/>
+  <dimension ref="D1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1113,12 +1119,12 @@
     <col min="12" max="12" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1131,8 +1137,11 @@
       <c r="M2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1143,14 +1152,17 @@
         <v>0.125</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N3" s="9">
         <f>SUM(M8:M36)</f>
-        <v>136.63999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="4:15" x14ac:dyDescent="0.45">
+        <v>140.01999999999998</v>
+      </c>
+      <c r="P3">
+        <v>166.33</v>
+      </c>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.45">
       <c r="H4" t="s">
         <v>77</v>
       </c>
@@ -1163,19 +1175,23 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N4" s="9">
         <f>N3/$I$2</f>
-        <v>12.42181818181818</v>
-      </c>
-    </row>
-    <row r="5" spans="4:15" x14ac:dyDescent="0.45">
+        <v>12.729090909090907</v>
+      </c>
+      <c r="P4">
+        <f>P3/$I$2</f>
+        <v>15.120909090909093</v>
+      </c>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.45">
       <c r="H5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
         <v>80</v>
       </c>
@@ -1183,7 +1199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1218,10 +1234,10 @@
         <v>35</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D8" s="2">
         <v>1</v>
       </c>
@@ -1259,7 +1275,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D9" s="2">
         <v>2</v>
       </c>
@@ -1293,7 +1309,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D10" s="2">
         <v>3</v>
       </c>
@@ -1301,7 +1317,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="2">
         <v>0.68</v>
@@ -1328,10 +1344,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D11" s="2">
         <v>4</v>
       </c>
@@ -1369,7 +1385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D12" s="2">
         <v>5</v>
       </c>
@@ -1383,31 +1399,31 @@
         <v>0.71</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>1.837</v>
+        <v>0.91849999999999998</v>
       </c>
       <c r="J12" s="2">
         <v>12</v>
       </c>
       <c r="K12" s="3">
-        <v>2.31</v>
+        <v>3.37</v>
       </c>
       <c r="L12" s="11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="2"/>
-        <v>4.62</v>
+        <v>3.37</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D13" s="2">
         <v>6</v>
       </c>
@@ -1445,7 +1461,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D14" s="2">
         <v>7</v>
       </c>
@@ -1483,7 +1499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D15" s="2">
         <v>8</v>
       </c>
@@ -1517,7 +1533,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D16" s="2">
         <v>9</v>
       </c>
@@ -1538,21 +1554,21 @@
         <v>1.2375</v>
       </c>
       <c r="J16" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K16" s="3">
-        <v>10.75</v>
+        <v>36.61</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="2"/>
-        <v>32.25</v>
+        <v>36.61</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.45">
@@ -1579,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="14">
-        <v>6.25</v>
+        <v>6.52</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="1"/>
@@ -1587,7 +1603,10 @@
       </c>
       <c r="M17" s="4">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>6.52</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.45">
@@ -1598,17 +1617,17 @@
         <v>64</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="3"/>
-        <v>9.9</v>
+        <v>11.137500000000001</v>
       </c>
       <c r="J18" s="2">
         <v>100</v>
@@ -1617,7 +1636,7 @@
         <v>10.67</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="1"/>
+        <f>ROUNDUP(I18*$I$2/J18,0)</f>
         <v>2</v>
       </c>
       <c r="M18" s="4">
@@ -1735,7 +1754,7 @@
         <v>1.32</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.45">
@@ -1810,7 +1829,7 @@
         <v>2.39</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.45">
@@ -1852,10 +1871,10 @@
     <row r="25" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="G25" s="16">
         <f>I9+I15+I19+I20+I22+I24</f>
@@ -1883,7 +1902,7 @@
         <v>38.770000000000003</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.45">
@@ -1959,20 +1978,21 @@
     <hyperlink ref="N14" r:id="rId1" xr:uid="{F0D53B66-5161-4BC0-B8EA-E7B0358D948F}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{286ADFF0-A07E-4BEF-B048-D8FAA444A4DB}"/>
     <hyperlink ref="N11" r:id="rId3" xr:uid="{98DF6D3B-C81B-4565-9D6B-B7411737D2F4}"/>
-    <hyperlink ref="N12" r:id="rId4" xr:uid="{CE4A6C89-BB7B-4376-BA58-F1552E9D4761}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{864C02D5-AF38-487D-867A-A542380AC087}"/>
-    <hyperlink ref="N8" r:id="rId6" display="https://www.mcmaster.com/8859K25/" xr:uid="{F908FED8-5452-403B-87EF-B7B5A1DA2F2B}"/>
-    <hyperlink ref="N18" r:id="rId7" xr:uid="{3C454C26-D48F-43FD-863A-0CC4615A7216}"/>
-    <hyperlink ref="N13" r:id="rId8" display="https://www.mcmaster.com/8859K52/" xr:uid="{6D2CFA1F-D224-4FCF-B0E0-6F20EC0AE14C}"/>
-    <hyperlink ref="N36" r:id="rId9" xr:uid="{050EF5EE-4547-440F-BB79-999CF7691101}"/>
-    <hyperlink ref="N16" r:id="rId10" xr:uid="{86E96774-BC47-49EC-BE56-596C471E6C7D}"/>
-    <hyperlink ref="N21" r:id="rId11" xr:uid="{598B3B03-D249-41BA-9125-F467DD2CA1DE}"/>
-    <hyperlink ref="N23" r:id="rId12" xr:uid="{C88ABFB4-4976-43CB-828F-09617DD944EB}"/>
-    <hyperlink ref="N25" r:id="rId13" display="https://www.mcmaster.com/8313K14/" xr:uid="{6B80FD6D-6BC5-43A7-9BC3-936A702C28DD}"/>
-    <hyperlink ref="N10" r:id="rId14" display="https://www.mcmaster.com/8950K522-8950K524/" xr:uid="{E6EEBAA7-78EF-4DFB-A69B-C3A4FE7CF93A}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{864C02D5-AF38-487D-867A-A542380AC087}"/>
+    <hyperlink ref="N8" r:id="rId5" display="https://www.mcmaster.com/8859K25/" xr:uid="{F908FED8-5452-403B-87EF-B7B5A1DA2F2B}"/>
+    <hyperlink ref="N18" r:id="rId6" xr:uid="{3C454C26-D48F-43FD-863A-0CC4615A7216}"/>
+    <hyperlink ref="N13" r:id="rId7" display="https://www.mcmaster.com/8859K52/" xr:uid="{6D2CFA1F-D224-4FCF-B0E0-6F20EC0AE14C}"/>
+    <hyperlink ref="N36" r:id="rId8" xr:uid="{050EF5EE-4547-440F-BB79-999CF7691101}"/>
+    <hyperlink ref="N21" r:id="rId9" xr:uid="{598B3B03-D249-41BA-9125-F467DD2CA1DE}"/>
+    <hyperlink ref="N23" r:id="rId10" xr:uid="{C88ABFB4-4976-43CB-828F-09617DD944EB}"/>
+    <hyperlink ref="N25" r:id="rId11" display="https://www.mcmaster.com/8313K14/" xr:uid="{6B80FD6D-6BC5-43A7-9BC3-936A702C28DD}"/>
+    <hyperlink ref="N10" r:id="rId12" display="https://www.mcmaster.com/8950K522-8950K524/" xr:uid="{E6EEBAA7-78EF-4DFB-A69B-C3A4FE7CF93A}"/>
+    <hyperlink ref="N12" r:id="rId13" display="https://www.mcmaster.com/8859K84/" xr:uid="{A563B4D1-D0EA-4487-ACE7-14FBD1C821C9}"/>
+    <hyperlink ref="N16" r:id="rId14" display="https://www.mcmaster.com/1263K28/" xr:uid="{0E3D3C2E-4336-4091-A8A5-CE34EE62F88B}"/>
+    <hyperlink ref="N17" r:id="rId15" display="https://www.mcmaster.com/1263K28/" xr:uid="{9345CC64-BAB7-4FE5-856E-14515B5C78D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
